--- a/data/source/loadings_04-12-20205_07-12-2025.xlsx
+++ b/data/source/loadings_04-12-20205_07-12-2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweetd0ve/Servers/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweetd0ve/Arina/dashboard/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA234C-8DEB-4B4E-B991-8D58048D4435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B826595-B433-0347-A326-4BACAFD46FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="760" windowWidth="29420" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="29380" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1196,10 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>146</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>147</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>148</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>150</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>151</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>153</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>157</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>160</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>163</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>165</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>168</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>170</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>178</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>179</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>180</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>182</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>183</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>185</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>187</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>188</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>189</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>190</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>192</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>193</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>194</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>196</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>197</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>198</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>199</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>200</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>201</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>202</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>203</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>212</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>213</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>214</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>215</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>216</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>217</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>218</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>220</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>221</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>222</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>223</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>224</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>225</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>227</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>228</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>229</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>230</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>231</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>232</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>233</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>234</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>235</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>237</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>238</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>239</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>241</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>242</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>243</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>244</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>245</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>246</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>247</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>248</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>249</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>250</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>251</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>252</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>253</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>255</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>256</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>257</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>259</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>260</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>261</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>264</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>265</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>266</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>267</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>269</v>
       </c>
@@ -4669,7 +4670,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D247" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D247" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="low"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>